--- a/Documentos/EFFEIs - Estimativa de tempo.xlsx
+++ b/Documentos/EFFEIs - Estimativa de tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Dropbox\Unifei\6 período\Gerência de Projeto - Adler\Trabalho Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41E06B65-8E5A-44A7-951C-B16CCD513456}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEAD3AC3-9AB3-46B7-9058-1375D9F1A154}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Atores!$B$13:$C$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'RFS ou RFC'!$A$12:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'RFS ou RFC'!$A$12:$E$43</definedName>
     <definedName name="_Toc112831755" localSheetId="2">'RFS ou RFC'!$B$13</definedName>
     <definedName name="Atores">Atores!$B$13:$C$17</definedName>
-    <definedName name="CUC">'RFS ou RFC'!$D$13:$D$39</definedName>
+    <definedName name="CUC">'RFS ou RFC'!$D$13:$D$43</definedName>
     <definedName name="FCAMB">Fatores!$G$36</definedName>
     <definedName name="FCTEC">Fatores!$E$22</definedName>
     <definedName name="ITEC">Fatores!$E$22</definedName>
@@ -32,7 +32,7 @@
     <definedName name="PTUC">'RFS ou RFC'!$D$10</definedName>
     <definedName name="TotalDiasUteisProjeto">Geral!#REF!</definedName>
     <definedName name="TotalHorasProjeto">Geral!#REF!</definedName>
-    <definedName name="UC">'RFS ou RFC'!$A$12:$C$39</definedName>
+    <definedName name="UC">'RFS ou RFC'!$A$12:$C$43</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="189">
   <si>
     <t>Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -807,6 +807,30 @@
   </si>
   <si>
     <t>Cancelar Login</t>
+  </si>
+  <si>
+    <t>RFS31</t>
+  </si>
+  <si>
+    <t>RFS28</t>
+  </si>
+  <si>
+    <t>RFS29</t>
+  </si>
+  <si>
+    <t>RFS30</t>
+  </si>
+  <si>
+    <t>Cadatro de perfil Administrador</t>
+  </si>
+  <si>
+    <t>Alterarar dados de perfil Administrador</t>
+  </si>
+  <si>
+    <t>Pesquisar Administradores</t>
+  </si>
+  <si>
+    <t>Desativar Administradores</t>
   </si>
 </sst>
 </file>
@@ -1886,6 +1910,48 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1911,51 +1977,9 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1968,19 +1992,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,7 +2244,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2269,7 +2293,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2318,7 +2342,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2367,7 +2391,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2678,7 +2702,7 @@
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2723,32 +2747,32 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="2"/>
       <c r="L3" s="102"/>
       <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="112"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="2"/>
       <c r="L4" s="102"/>
       <c r="M4" s="102"/>
@@ -2770,18 +2794,18 @@
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="106"/>
       <c r="K6" s="106"/>
       <c r="L6" s="102"/>
@@ -2789,18 +2813,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="106"/>
       <c r="K7" s="106"/>
       <c r="L7" s="102"/>
@@ -2808,18 +2832,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="113" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="114"/>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="125"/>
+      <c r="G8" s="127"/>
       <c r="H8" s="113" t="s">
         <v>8</v>
       </c>
@@ -2899,24 +2923,24 @@
       <c r="M12" s="103"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="5">
         <f>Atores!D10+'RFS ou RFC'!D10</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" s="106"/>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="6">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
-        <v>11.088000000000001</v>
+        <v>11.704000000000001</v>
       </c>
       <c r="K13" s="7">
         <f>dadoshistoricos!E31</f>
@@ -2926,23 +2950,23 @@
       <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="9">
         <v>3.3</v>
       </c>
       <c r="F14" s="106"/>
-      <c r="G14" s="133" t="s">
+      <c r="G14" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>39.072000000000003</v>
+        <v>41.242666666666665</v>
       </c>
       <c r="K14" s="116">
         <f>dadoshistoricos!F31*0.8</f>
@@ -2952,19 +2976,19 @@
       <c r="M14" s="105"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="110"/>
       <c r="F15" s="106"/>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>9.7680000000000007</v>
+        <v>10.310666666666666</v>
       </c>
       <c r="K15" s="11">
         <f>dadoshistoricos!F31*0.2</f>
@@ -2974,19 +2998,19 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>15.84</v>
+        <v>16.72</v>
       </c>
       <c r="K16" s="11">
         <f>dadoshistoricos!G31</f>
@@ -3001,14 +3025,14 @@
       <c r="D17" s="106"/>
       <c r="E17" s="106"/>
       <c r="F17" s="106"/>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>139.33333333333334</v>
       </c>
       <c r="K17" s="11">
         <f>dadoshistoricos!H31</f>
@@ -3023,14 +3047,14 @@
       <c r="D18" s="106"/>
       <c r="E18" s="106"/>
       <c r="F18" s="106"/>
-      <c r="G18" s="136" t="s">
+      <c r="G18" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>5.28</v>
+        <v>5.5733333333333333</v>
       </c>
       <c r="K18" s="11">
         <f>dadoshistoricos!I31</f>
@@ -3044,14 +3068,14 @@
       <c r="D19" s="106"/>
       <c r="E19" s="8"/>
       <c r="F19" s="109"/>
-      <c r="G19" s="136" t="s">
+      <c r="G19" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>16.104000000000003</v>
+        <v>16.998666666666669</v>
       </c>
       <c r="K19" s="11">
         <f>dadoshistoricos!J31</f>
@@ -3067,14 +3091,14 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>8.4480000000000004</v>
+        <v>8.9173333333333336</v>
       </c>
       <c r="K20" s="11">
         <f>dadoshistoricos!K31</f>
@@ -3088,14 +3112,14 @@
       <c r="D21" s="106"/>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
-      <c r="G21" s="137" t="s">
+      <c r="G21" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
       <c r="J21" s="13">
         <f>SUM(J13:J20)*Fatores!E21*Fatores!G36</f>
-        <v>193.64400000000001</v>
+        <v>204.40200000000002</v>
       </c>
       <c r="K21" s="14">
         <f>SUM(K13:K20)</f>
@@ -3104,31 +3128,31 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
       <c r="K23" s="110"/>
       <c r="L23" s="109"/>
     </row>
@@ -3191,17 +3215,17 @@
       <c r="L27" s="109"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
       <c r="K28" s="110"/>
       <c r="L28" s="110"/>
     </row>
@@ -3234,32 +3258,32 @@
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3554,10 +3578,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AMK1003"/>
+  <dimension ref="A1:AMK1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3651,7 +3675,7 @@
       </c>
       <c r="D7" s="5">
         <f>COUNTIF(CUC,B7)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="46"/>
       <c r="H7"/>
@@ -3697,7 +3721,7 @@
       </c>
       <c r="D10" s="52">
         <f>(C7*D7)+(C8*D8)+(C9*D9)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10"/>
       <c r="H10"/>
@@ -4242,4849 +4266,4917 @@
         <v>162</v>
       </c>
       <c r="B39" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="59">
+        <v>1</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="59">
+        <v>1</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="59">
+        <v>1</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="59">
+        <v>1</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C43" s="59">
         <v>3</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D43" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E43" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O43" s="15">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="61">
-        <f>SUBTOTAL(103,B13:B39)</f>
-        <v>27</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="O40" s="15">
+      <c r="B44" s="61">
+        <f>SUBTOTAL(103,B13:B43)</f>
+        <v>31</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="O44" s="15">
         <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="15">
-        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O45" s="15">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O46" s="15">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O47" s="15">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O48" s="15">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N49" s="35"/>
       <c r="O49" s="15">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O50" s="15">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O51" s="15">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O52" s="15">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="35"/>
       <c r="O53" s="15">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O54" s="15">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O55" s="15">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O56" s="15">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O57" s="15">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O58" s="15">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O59" s="15">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O60" s="15">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O61" s="15">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O62" s="15">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O63" s="15">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O64" s="15">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O65" s="15">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O66" s="15">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O67" s="15">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O68" s="15">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O69" s="15">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O70" s="15">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O71" s="15">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O72" s="15">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O73" s="15">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O74" s="15">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O75" s="15">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O76" s="15">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O77" s="15">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O78" s="15">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O79" s="15">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O80" s="15">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O81" s="15">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O82" s="15">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O83" s="15">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O84" s="15">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O85" s="15">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O86" s="15">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O87" s="15">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O88" s="15">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O89" s="15">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O90" s="15">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O91" s="15">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O92" s="15">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O93" s="15">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O94" s="15">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O95" s="15">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O96" s="15">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O97" s="15">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O98" s="15">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O99" s="15">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O100" s="15">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O101" s="15">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O102" s="15">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O103" s="15">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O104" s="15">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O105" s="15">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O106" s="15">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O107" s="15">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O108" s="15">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O109" s="15">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O110" s="15">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O111" s="15">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O112" s="15">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O113" s="15">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O114" s="15">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O115" s="15">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O116" s="15">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O117" s="15">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O118" s="15">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O119" s="15">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O120" s="15">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O121" s="15">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O122" s="15">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O123" s="15">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O124" s="15">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O125" s="15">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O126" s="15">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O127" s="15">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O128" s="15">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" s="15">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" s="15">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" s="15">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" s="15">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" s="15">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" s="15">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O135" s="15">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" s="15">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" s="15">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O138" s="15">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" s="15">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" s="15">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O141" s="15">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" s="15">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" s="15">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" s="15">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O145" s="15">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O146" s="15">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O147" s="15">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O148" s="15">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O149" s="15">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O150" s="15">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O151" s="15">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O152" s="15">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O153" s="15">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O154" s="15">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O155" s="15">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O156" s="15">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O157" s="15">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O158" s="15">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O159" s="15">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O160" s="15">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O161" s="15">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O162" s="15">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O163" s="15">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O164" s="15">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O165" s="15">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O166" s="15">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O167" s="15">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O168" s="15">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O169" s="15">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O170" s="15">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O171" s="15">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O172" s="15">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O173" s="15">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O174" s="15">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O175" s="15">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O176" s="15">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O177" s="15">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O178" s="15">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O179" s="15">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O180" s="15">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O181" s="15">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O182" s="15">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O183" s="15">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O184" s="15">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O185" s="15">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O186" s="15">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O187" s="15">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O188" s="15">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O189" s="15">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O190" s="15">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O191" s="15">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O192" s="15">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O193" s="15">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O194" s="15">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O195" s="15">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O196" s="15">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O197" s="15">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O198" s="15">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O199" s="15">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O200" s="15">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O201" s="15">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O202" s="15">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O203" s="15">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O204" s="15">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O205" s="15">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O206" s="15">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O207" s="15">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O208" s="15">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O209" s="15">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O210" s="15">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O211" s="15">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O212" s="15">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O213" s="15">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O214" s="15">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O215" s="15">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O216" s="15">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O217" s="15">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O218" s="15">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O219" s="15">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O220" s="15">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O221" s="15">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O222" s="15">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O223" s="15">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O224" s="15">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O225" s="15">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O226" s="15">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O227" s="15">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O228" s="15">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O229" s="15">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O230" s="15">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O231" s="15">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O232" s="15">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O233" s="15">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O234" s="15">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O235" s="15">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O236" s="15">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O237" s="15">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O238" s="15">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O239" s="15">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O240" s="15">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O241" s="15">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O242" s="15">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O243" s="15">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O244" s="15">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O245" s="15">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O246" s="15">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O247" s="15">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O248" s="15">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O249" s="15">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O250" s="15">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O251" s="15">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O252" s="15">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O253" s="15">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O254" s="15">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O255" s="15">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O256" s="15">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O257" s="15">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O258" s="15">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O259" s="15">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="260" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O260" s="15">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="261" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O261" s="15">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O262" s="15">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O263" s="15">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O264" s="15">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O265" s="15">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O266" s="15">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O267" s="15">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O268" s="15">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O269" s="15">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="270" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O270" s="15">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O271" s="15">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O272" s="15">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O273" s="15">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O274" s="15">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O275" s="15">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O276" s="15">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O277" s="15">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O278" s="15">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O279" s="15">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O280" s="15">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="281" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O281" s="15">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="282" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O282" s="15">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="283" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O283" s="15">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="284" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O284" s="15">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="285" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O285" s="15">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O286" s="15">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="287" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O287" s="15">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="288" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O288" s="15">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O289" s="15">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O290" s="15">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O291" s="15">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O292" s="15">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O293" s="15">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O294" s="15">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O295" s="15">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O296" s="15">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O297" s="15">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O298" s="15">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="299" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O299" s="15">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O300" s="15">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O301" s="15">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O302" s="15">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O303" s="15">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O304" s="15">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O305" s="15">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O306" s="15">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O307" s="15">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="308" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O308" s="15">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O309" s="15">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O310" s="15">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O311" s="15">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O312" s="15">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O313" s="15">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="314" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O314" s="15">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="315" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O315" s="15">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O316" s="15">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="317" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O317" s="15">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="318" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O318" s="15">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O319" s="15">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O320" s="15">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="321" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O321" s="15">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O322" s="15">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O323" s="15">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="324" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O324" s="15">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O325" s="15">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O326" s="15">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="327" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O327" s="15">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O328" s="15">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O329" s="15">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O330" s="15">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O331" s="15">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="332" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O332" s="15">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="333" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O333" s="15">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O334" s="15">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O335" s="15">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="336" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O336" s="15">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O337" s="15">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="338" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O338" s="15">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="339" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O339" s="15">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="340" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O340" s="15">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="341" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O341" s="15">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="342" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O342" s="15">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="343" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O343" s="15">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="344" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O344" s="15">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O345" s="15">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="346" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O346" s="15">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="347" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O347" s="15">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O348" s="15">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O349" s="15">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="350" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O350" s="15">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="351" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O351" s="15">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O352" s="15">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O353" s="15">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O354" s="15">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O355" s="15">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="356" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O356" s="15">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O357" s="15">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O358" s="15">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="359" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O359" s="15">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="360" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O360" s="15">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="361" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O361" s="15">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="362" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O362" s="15">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="363" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O363" s="15">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O364" s="15">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O365" s="15">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="366" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O366" s="15">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O367" s="15">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="368" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O368" s="15">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="369" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O369" s="15">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="370" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O370" s="15">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="371" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O371" s="15">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O372" s="15">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="373" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O373" s="15">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="374" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O374" s="15">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="375" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O375" s="15">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="376" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O376" s="15">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O377" s="15">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O378" s="15">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O379" s="15">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="380" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O380" s="15">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O381" s="15">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="382" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O382" s="15">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="383" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O383" s="15">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O384" s="15">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O385" s="15">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O386" s="15">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="387" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O387" s="15">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="388" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O388" s="15">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="389" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O389" s="15">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="390" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O390" s="15">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="391" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O391" s="15">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="392" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O392" s="15">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="393" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O393" s="15">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="394" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O394" s="15">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="395" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O395" s="15">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="396" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O396" s="15">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="397" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O397" s="15">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O398" s="15">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="399" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O399" s="15">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="400" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O400" s="15">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="401" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O401" s="15">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="402" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O402" s="15">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="403" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O403" s="15">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="404" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O404" s="15">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="405" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O405" s="15">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="406" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O406" s="15">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="407" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O407" s="15">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="408" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O408" s="15">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="409" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O409" s="15">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="410" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O410" s="15">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="411" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O411" s="15">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O412" s="15">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="413" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O413" s="15">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="414" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O414" s="15">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="415" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O415" s="15">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="416" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O416" s="15">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="417" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O417" s="15">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="418" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O418" s="15">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="419" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O419" s="15">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="420" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O420" s="15">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="421" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O421" s="15">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="422" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O422" s="15">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="423" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O423" s="15">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="424" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O424" s="15">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="425" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O425" s="15">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O426" s="15">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="427" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O427" s="15">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O428" s="15">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="429" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O429" s="15">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O430" s="15">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O431" s="15">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="432" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O432" s="15">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="433" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O433" s="15">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="434" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O434" s="15">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="435" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O435" s="15">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="436" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O436" s="15">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="437" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O437" s="15">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O438" s="15">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="439" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O439" s="15">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="440" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O440" s="15">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="441" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O441" s="15">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="442" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O442" s="15">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="443" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O443" s="15">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="444" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O444" s="15">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="445" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O445" s="15">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="446" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O446" s="15">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="447" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O447" s="15">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="448" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O448" s="15">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="449" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O449" s="15">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="450" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O450" s="15">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="451" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O451" s="15">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="452" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O452" s="15">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O453" s="15">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="454" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O454" s="15">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="455" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O455" s="15">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="456" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O456" s="15">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="457" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O457" s="15">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="458" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O458" s="15">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="459" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O459" s="15">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="460" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O460" s="15">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="461" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O461" s="15">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="462" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O462" s="15">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="463" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O463" s="15">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="464" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O464" s="15">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="465" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O465" s="15">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="466" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O466" s="15">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="467" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O467" s="15">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="468" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O468" s="15">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O469" s="15">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O470" s="15">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="471" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O471" s="15">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="472" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O472" s="15">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="473" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O473" s="15">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O474" s="15">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O475" s="15">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="476" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O476" s="15">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="477" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O477" s="15">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="478" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O478" s="15">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="479" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O479" s="15">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="480" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O480" s="15">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="481" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O481" s="15">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O482" s="15">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="483" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O483" s="15">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="484" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O484" s="15">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="485" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O485" s="15">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O486" s="15">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="487" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O487" s="15">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="488" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O488" s="15">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="489" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O489" s="15">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="490" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O490" s="15">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="491" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O491" s="15">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="492" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O492" s="15">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="493" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O493" s="15">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="494" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O494" s="15">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="495" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O495" s="15">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="496" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O496" s="15">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="497" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O497" s="15">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="498" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O498" s="15">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="499" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O499" s="15">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="500" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O500" s="15">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="501" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O501" s="15">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="502" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O502" s="15">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="503" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O503" s="15">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="504" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O504" s="15">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="505" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O505" s="15">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="506" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O506" s="15">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="507" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O507" s="15">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="508" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O508" s="15">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="509" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O509" s="15">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="510" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O510" s="15">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="511" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O511" s="15">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="512" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O512" s="15">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="513" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O513" s="15">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="514" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O514" s="15">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="515" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O515" s="15">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="516" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O516" s="15">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="517" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O517" s="15">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="518" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O518" s="15">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="519" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O519" s="15">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="520" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O520" s="15">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="521" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O521" s="15">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="522" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O522" s="15">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="523" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O523" s="15">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="524" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O524" s="15">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="525" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O525" s="15">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="526" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O526" s="15">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="527" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O527" s="15">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="528" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O528" s="15">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="529" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O529" s="15">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="530" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O530" s="15">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="531" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O531" s="15">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="532" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O532" s="15">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="533" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O533" s="15">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="534" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O534" s="15">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="535" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O535" s="15">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="536" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O536" s="15">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="537" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O537" s="15">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="538" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O538" s="15">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="539" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O539" s="15">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="540" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O540" s="15">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="541" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O541" s="15">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="542" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O542" s="15">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="543" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O543" s="15">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="544" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O544" s="15">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="545" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O545" s="15">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="546" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O546" s="15">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="547" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O547" s="15">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="548" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O548" s="15">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="549" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O549" s="15">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="550" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O550" s="15">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="551" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O551" s="15">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="552" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O552" s="15">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="553" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O553" s="15">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="554" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O554" s="15">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="555" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O555" s="15">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="556" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O556" s="15">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="557" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O557" s="15">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="558" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O558" s="15">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="559" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O559" s="15">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="560" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O560" s="15">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="561" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O561" s="15">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="562" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O562" s="15">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="563" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O563" s="15">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="564" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O564" s="15">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="565" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O565" s="15">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="566" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O566" s="15">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="567" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O567" s="15">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="568" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O568" s="15">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="569" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O569" s="15">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="570" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O570" s="15">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="571" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O571" s="15">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="572" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O572" s="15">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="573" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O573" s="15">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="574" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O574" s="15">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="575" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O575" s="15">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O576" s="15">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="577" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O577" s="15">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="578" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O578" s="15">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="579" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O579" s="15">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="580" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O580" s="15">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="581" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O581" s="15">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="582" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O582" s="15">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="583" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O583" s="15">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="584" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O584" s="15">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="585" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O585" s="15">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="586" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O586" s="15">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="587" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O587" s="15">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="588" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O588" s="15">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="589" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O589" s="15">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="590" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O590" s="15">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="591" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O591" s="15">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="592" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O592" s="15">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="593" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O593" s="15">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="594" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O594" s="15">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="595" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O595" s="15">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="596" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O596" s="15">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="597" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O597" s="15">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="598" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O598" s="15">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="599" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O599" s="15">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="600" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O600" s="15">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="601" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O601" s="15">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="602" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O602" s="15">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="603" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O603" s="15">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="604" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O604" s="15">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="605" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O605" s="15">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="606" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O606" s="15">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="607" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O607" s="15">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="608" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O608" s="15">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="609" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O609" s="15">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="610" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O610" s="15">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="611" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O611" s="15">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="612" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O612" s="15">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="613" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O613" s="15">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="614" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O614" s="15">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="615" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O615" s="15">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="616" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O616" s="15">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="617" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O617" s="15">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="618" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O618" s="15">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="619" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O619" s="15">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="620" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O620" s="15">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="621" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O621" s="15">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="622" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O622" s="15">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="623" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O623" s="15">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="624" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O624" s="15">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="625" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O625" s="15">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="626" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O626" s="15">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="627" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O627" s="15">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="628" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O628" s="15">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="629" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O629" s="15">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="630" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O630" s="15">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="631" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O631" s="15">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="632" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O632" s="15">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="633" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O633" s="15">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="634" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O634" s="15">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="635" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O635" s="15">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="636" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O636" s="15">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="637" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O637" s="15">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="638" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O638" s="15">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="639" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O639" s="15">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="640" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O640" s="15">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="641" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O641" s="15">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="642" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O642" s="15">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="643" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O643" s="15">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="644" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O644" s="15">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="645" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O645" s="15">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="646" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O646" s="15">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="647" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O647" s="15">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="648" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O648" s="15">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="649" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O649" s="15">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="650" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O650" s="15">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="651" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O651" s="15">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="652" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O652" s="15">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="653" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O653" s="15">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="654" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O654" s="15">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="655" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O655" s="15">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="656" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O656" s="15">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="657" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O657" s="15">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="658" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O658" s="15">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="659" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O659" s="15">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="660" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O660" s="15">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="661" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O661" s="15">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="662" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O662" s="15">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="663" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O663" s="15">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="664" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O664" s="15">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="665" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O665" s="15">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="666" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O666" s="15">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="667" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O667" s="15">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="668" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O668" s="15">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="669" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O669" s="15">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="670" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O670" s="15">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="671" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O671" s="15">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="672" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O672" s="15">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="673" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O673" s="15">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="674" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O674" s="15">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="675" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O675" s="15">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="676" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O676" s="15">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="677" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O677" s="15">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="678" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O678" s="15">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="679" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O679" s="15">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="680" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O680" s="15">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="681" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O681" s="15">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="682" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O682" s="15">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="683" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O683" s="15">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="684" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O684" s="15">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="685" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O685" s="15">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="686" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O686" s="15">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="687" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O687" s="15">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="688" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O688" s="15">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="689" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O689" s="15">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="690" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O690" s="15">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="691" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O691" s="15">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="692" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O692" s="15">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="693" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O693" s="15">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="694" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O694" s="15">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="695" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O695" s="15">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="696" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O696" s="15">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="697" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O697" s="15">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="698" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O698" s="15">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="699" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O699" s="15">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="700" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O700" s="15">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="701" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O701" s="15">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="702" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O702" s="15">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="703" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O703" s="15">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="704" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O704" s="15">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="705" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O705" s="15">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="706" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O706" s="15">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="707" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O707" s="15">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="708" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O708" s="15">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="709" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O709" s="15">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="710" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O710" s="15">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="711" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O711" s="15">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="712" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O712" s="15">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="713" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O713" s="15">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="714" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O714" s="15">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="715" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O715" s="15">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="716" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O716" s="15">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="717" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O717" s="15">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="718" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O718" s="15">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="719" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O719" s="15">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="720" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O720" s="15">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="721" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O721" s="15">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="722" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O722" s="15">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="723" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O723" s="15">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="724" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O724" s="15">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="725" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O725" s="15">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="726" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O726" s="15">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="727" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O727" s="15">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="728" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O728" s="15">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="729" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O729" s="15">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="730" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O730" s="15">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="731" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O731" s="15">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="732" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O732" s="15">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="733" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O733" s="15">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="734" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O734" s="15">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="735" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O735" s="15">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="736" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O736" s="15">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="737" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O737" s="15">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="738" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O738" s="15">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="739" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O739" s="15">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="740" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O740" s="15">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="741" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O741" s="15">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="742" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O742" s="15">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="743" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O743" s="15">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="744" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O744" s="15">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="745" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O745" s="15">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="746" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O746" s="15">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="747" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O747" s="15">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="748" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O748" s="15">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="749" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O749" s="15">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="750" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O750" s="15">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="751" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O751" s="15">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="752" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O752" s="15">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="753" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O753" s="15">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="754" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O754" s="15">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="755" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O755" s="15">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="756" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O756" s="15">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="757" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O757" s="15">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="758" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O758" s="15">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="759" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O759" s="15">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="760" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O760" s="15">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="761" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O761" s="15">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="762" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O762" s="15">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="763" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O763" s="15">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="764" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O764" s="15">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="765" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O765" s="15">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="766" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O766" s="15">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="767" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O767" s="15">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="768" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O768" s="15">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="769" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O769" s="15">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="770" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O770" s="15">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="771" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O771" s="15">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="772" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O772" s="15">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="773" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O773" s="15">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="774" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O774" s="15">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="775" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O775" s="15">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="776" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O776" s="15">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="777" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O777" s="15">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="778" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O778" s="15">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="779" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O779" s="15">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="780" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O780" s="15">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="781" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O781" s="15">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="782" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O782" s="15">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="783" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O783" s="15">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="784" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O784" s="15">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="785" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O785" s="15">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="786" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O786" s="15">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="787" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O787" s="15">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="788" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O788" s="15">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="789" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O789" s="15">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="790" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O790" s="15">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="791" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O791" s="15">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="792" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O792" s="15">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="793" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O793" s="15">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="794" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O794" s="15">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="795" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O795" s="15">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="796" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O796" s="15">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="797" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O797" s="15">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="798" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O798" s="15">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="799" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O799" s="15">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="800" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O800" s="15">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="801" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O801" s="15">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="802" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O802" s="15">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="803" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O803" s="15">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="804" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O804" s="15">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="805" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O805" s="15">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="806" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O806" s="15">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="807" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O807" s="15">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="808" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O808" s="15">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="809" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O809" s="15">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="810" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O810" s="15">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="811" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O811" s="15">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="812" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O812" s="15">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="813" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O813" s="15">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="814" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O814" s="15">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="815" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O815" s="15">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="816" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O816" s="15">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="817" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O817" s="15">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="818" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O818" s="15">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="819" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O819" s="15">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="820" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O820" s="15">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="821" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O821" s="15">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="822" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O822" s="15">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="823" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O823" s="15">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="824" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O824" s="15">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="825" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O825" s="15">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="826" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O826" s="15">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="827" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O827" s="15">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="828" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O828" s="15">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="829" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O829" s="15">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="830" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O830" s="15">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="831" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O831" s="15">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="832" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O832" s="15">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="833" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O833" s="15">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="834" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O834" s="15">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="835" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O835" s="15">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="836" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O836" s="15">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="837" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O837" s="15">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="838" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O838" s="15">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="839" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O839" s="15">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="840" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O840" s="15">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="841" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O841" s="15">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="842" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O842" s="15">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="843" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O843" s="15">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="844" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O844" s="15">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="845" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O845" s="15">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="846" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O846" s="15">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="847" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O847" s="15">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="848" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O848" s="15">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="849" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O849" s="15">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="850" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O850" s="15">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="851" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O851" s="15">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="852" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O852" s="15">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="853" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O853" s="15">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="854" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O854" s="15">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="855" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O855" s="15">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="856" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O856" s="15">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="857" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O857" s="15">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="858" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O858" s="15">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="859" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O859" s="15">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="860" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O860" s="15">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="861" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O861" s="15">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="862" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O862" s="15">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="863" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O863" s="15">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="864" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O864" s="15">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="865" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O865" s="15">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="866" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O866" s="15">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="867" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O867" s="15">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="868" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O868" s="15">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="869" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O869" s="15">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="870" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O870" s="15">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="871" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O871" s="15">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="872" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O872" s="15">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="873" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O873" s="15">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="874" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O874" s="15">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="875" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O875" s="15">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="876" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O876" s="15">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="877" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O877" s="15">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="878" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O878" s="15">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="879" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O879" s="15">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="880" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O880" s="15">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="881" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O881" s="15">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="882" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O882" s="15">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="883" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O883" s="15">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="884" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O884" s="15">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="885" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O885" s="15">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="886" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O886" s="15">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="887" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O887" s="15">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="888" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O888" s="15">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="889" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O889" s="15">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="890" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O890" s="15">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="891" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O891" s="15">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="892" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O892" s="15">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="893" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O893" s="15">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="894" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O894" s="15">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="895" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O895" s="15">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="896" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O896" s="15">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="897" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O897" s="15">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="898" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O898" s="15">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="899" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O899" s="15">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="900" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O900" s="15">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="901" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O901" s="15">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="902" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O902" s="15">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="903" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O903" s="15">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="904" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O904" s="15">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="905" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O905" s="15">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="906" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O906" s="15">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="907" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O907" s="15">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="908" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O908" s="15">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="909" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O909" s="15">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="910" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O910" s="15">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="911" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O911" s="15">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="912" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O912" s="15">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="913" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O913" s="15">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="914" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O914" s="15">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="915" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O915" s="15">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="916" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O916" s="15">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="917" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O917" s="15">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="918" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O918" s="15">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="919" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O919" s="15">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="920" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O920" s="15">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="921" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O921" s="15">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="922" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O922" s="15">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="923" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O923" s="15">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="924" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O924" s="15">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="925" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O925" s="15">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="926" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O926" s="15">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="927" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O927" s="15">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="928" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O928" s="15">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="929" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O929" s="15">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="930" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O930" s="15">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="931" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O931" s="15">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="932" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O932" s="15">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="933" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O933" s="15">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="934" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O934" s="15">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="935" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O935" s="15">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="936" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O936" s="15">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="937" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O937" s="15">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="938" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O938" s="15">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="939" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O939" s="15">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="940" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O940" s="15">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="941" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O941" s="15">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="942" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O942" s="15">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="943" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O943" s="15">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="944" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O944" s="15">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="945" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O945" s="15">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="946" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O946" s="15">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="947" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O947" s="15">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="948" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O948" s="15">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="949" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O949" s="15">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="950" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O950" s="15">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="951" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O951" s="15">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="952" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O952" s="15">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="953" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O953" s="15">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="954" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O954" s="15">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="955" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O955" s="15">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="956" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O956" s="15">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="957" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O957" s="15">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="958" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O958" s="15">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="959" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O959" s="15">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="960" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O960" s="15">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="961" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O961" s="15">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="962" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O962" s="15">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="963" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O963" s="15">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="964" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O964" s="15">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="965" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O965" s="15">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="966" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O966" s="15">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="967" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O967" s="15">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="968" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O968" s="15">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="969" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O969" s="15">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="970" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O970" s="15">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="971" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O971" s="15">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="972" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O972" s="15">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="973" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O973" s="15">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="974" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O974" s="15">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="975" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O975" s="15">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="976" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O976" s="15">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="977" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O977" s="15">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="978" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O978" s="15">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="979" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O979" s="15">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="980" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O980" s="15">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="981" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O981" s="15">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="982" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O982" s="15">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="983" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O983" s="15">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="984" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O984" s="15">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="985" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O985" s="15">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="986" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O986" s="15">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="987" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O987" s="15">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="988" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O988" s="15">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="989" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O989" s="15">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="990" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O990" s="15">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="991" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O991" s="15">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="992" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O992" s="15">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="993" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O993" s="15">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="994" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O994" s="15">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="995" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O995" s="15">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="996" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O996" s="15">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="997" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O997" s="15">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="998" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O998" s="15">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="999" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O999" s="15">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1000" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1000" s="15">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1001" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1001" s="15">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1002" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1002" s="15">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1003" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1003" s="15">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1004" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1004" s="15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1005" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1005" s="15">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1006" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1006" s="15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1007" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O1007" s="15">
         <v>999</v>
       </c>
     </row>
@@ -9098,15 +9190,15 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13:B39" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B13:B43" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C13:C39" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C13:C43" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D39" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D13:D43" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>$B$7:$B$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9227,12 +9319,12 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="8"/>
@@ -9602,12 +9694,12 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
       <c r="F26" s="69"/>
       <c r="G26" s="70"/>
       <c r="I26"/>
@@ -9616,11 +9708,11 @@
       <c r="B27" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
       <c r="F27" s="71" t="s">
         <v>32</v>
       </c>
@@ -9633,11 +9725,11 @@
       <c r="B28" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="24">
         <v>1.5</v>
       </c>
@@ -9650,11 +9742,11 @@
       <c r="B29" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
       <c r="F29" s="24">
         <v>0.5</v>
       </c>
@@ -9667,11 +9759,11 @@
       <c r="B30" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
       <c r="F30" s="24">
         <v>1</v>
       </c>
@@ -9684,11 +9776,11 @@
       <c r="B31" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="24">
         <v>0.5</v>
       </c>
@@ -9701,11 +9793,11 @@
       <c r="B32" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="24">
         <v>1</v>
       </c>
@@ -9718,11 +9810,11 @@
       <c r="B33" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
       <c r="F33" s="24">
         <v>2</v>
       </c>
@@ -9735,11 +9827,11 @@
       <c r="B34" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="24">
         <v>-1</v>
       </c>
@@ -9752,11 +9844,11 @@
       <c r="B35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
       <c r="F35" s="24">
         <v>-1</v>
       </c>
@@ -9782,6 +9874,11 @@
   </sheetData>
   <sheetProtection password="C6D5" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -9791,11 +9888,6 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
